--- a/Academics.xlsx
+++ b/Academics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsors\my_protfolio\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsors\my_protfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4554DB0A-166A-4E10-AD20-9E2CAE4878B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181D2799-443C-4899-B429-28F435B3B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="4155" windowWidth="21600" windowHeight="11175" xr2:uid="{AB2798A7-522B-408D-AA43-E7CA5CC18E46}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{AB2798A7-522B-408D-AA43-E7CA5CC18E46}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Project Management &amp; Quality Assurence</t>
   </si>
   <si>
-    <t>Structure of Programming Languages</t>
-  </si>
-  <si>
     <t xml:space="preserve"> English for Computer Science</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Digital Design</t>
+  </si>
+  <si>
+    <t>Introduction to Numerical Techniques</t>
   </si>
 </sst>
 </file>
@@ -512,16 +512,16 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -576,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -598,7 +598,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -620,7 +620,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -642,15 +642,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
       <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -661,7 +664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -672,7 +675,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -680,46 +683,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
+      <c r="B18">
+        <v>83</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>98</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>82</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>93</v>
@@ -728,9 +743,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>93</v>
@@ -739,9 +754,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>87</v>
@@ -750,9 +765,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>99</v>
@@ -761,9 +776,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>100</v>
@@ -772,9 +787,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>91</v>
@@ -783,9 +798,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>81</v>
@@ -794,9 +809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>78</v>
@@ -805,9 +820,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>98</v>
@@ -816,9 +831,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>77</v>
@@ -827,9 +842,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>93</v>
@@ -838,9 +853,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>97</v>
